--- a/GanttChartPROG25.xlsx
+++ b/GanttChartPROG25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f059a287a76ec6f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlandgraff\source\repos\prog1004-gruppe-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{DAA2BF33-02D3-4F82-A8D8-DFE0BDFD84E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{918E932B-6EE5-4C05-9C4C-DFDB3C0295DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7BE1C-509D-4BE7-983F-86F3F5860C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{869F4D6E-3DCD-43F9-A693-0C5EA342B78F}"/>
   </bookViews>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -290,6 +290,7 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,20 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE02B9E-F4CC-418D-A6B5-EEFF26AE5CE0}">
-  <dimension ref="A1:CJ29"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.3515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.703125" customWidth="1"/>
-    <col min="5" max="88" width="2.8203125" customWidth="1"/>
+    <col min="5" max="74" width="2.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +634,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -738,28 +739,8 @@
       <c r="BT4" s="17"/>
       <c r="BU4" s="17"/>
       <c r="BV4" s="18"/>
-      <c r="BW4" s="16">
-        <f>BW5</f>
-        <v>44319</v>
-      </c>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="18"/>
-      <c r="CD4" s="16">
-        <f t="shared" ref="CD4" si="7">CD5</f>
-        <v>44326</v>
-      </c>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
-      <c r="CJ4" s="18"/>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -974,50 +955,8 @@
       <c r="BV5" s="10">
         <v>44318</v>
       </c>
-      <c r="BW5" s="8">
-        <v>44319</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>44320</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>44321</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>44322</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>44323</v>
-      </c>
-      <c r="CB5" s="9">
-        <v>44324</v>
-      </c>
-      <c r="CC5" s="10">
-        <v>44325</v>
-      </c>
-      <c r="CD5" s="8">
-        <v>44326</v>
-      </c>
-      <c r="CE5" s="9">
-        <v>44327</v>
-      </c>
-      <c r="CF5" s="9">
-        <v>44328</v>
-      </c>
-      <c r="CG5" s="9">
-        <v>44329</v>
-      </c>
-      <c r="CH5" s="9">
-        <v>44330</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>44331</v>
-      </c>
-      <c r="CJ5" s="10">
-        <v>44332</v>
-      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1029,31 +968,31 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="11" t="str">
-        <f t="shared" ref="E6:K6" si="8">LEFT(TEXT(E5,"ddd"),1)</f>
+        <f t="shared" ref="E6:K6" si="7">LEFT(TEXT(E5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>T</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>W</v>
       </c>
       <c r="H6" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>T</v>
       </c>
       <c r="I6" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="J6" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="K6" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="L6" s="11" t="str">
@@ -1061,23 +1000,23 @@
         <v>M</v>
       </c>
       <c r="M6" s="11" t="str">
-        <f t="shared" ref="M6:Q6" si="9">LEFT(TEXT(M5,"ddd"),1)</f>
+        <f t="shared" ref="M6:Q6" si="8">LEFT(TEXT(M5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="N6" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>W</v>
       </c>
       <c r="O6" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>T</v>
       </c>
       <c r="P6" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>F</v>
       </c>
       <c r="Q6" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>S</v>
       </c>
       <c r="R6" s="11" t="str">
@@ -1085,59 +1024,59 @@
         <v>S</v>
       </c>
       <c r="S6" s="11" t="str">
-        <f t="shared" ref="S6" si="10">LEFT(TEXT(S5,"ddd"),1)</f>
+        <f t="shared" ref="S6" si="9">LEFT(TEXT(S5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="T6" s="11" t="str">
-        <f t="shared" ref="T6" si="11">LEFT(TEXT(T5,"ddd"),1)</f>
+        <f t="shared" ref="T6" si="10">LEFT(TEXT(T5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="U6" s="11" t="str">
-        <f t="shared" ref="U6" si="12">LEFT(TEXT(U5,"ddd"),1)</f>
+        <f t="shared" ref="U6" si="11">LEFT(TEXT(U5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="V6" s="11" t="str">
-        <f t="shared" ref="V6" si="13">LEFT(TEXT(V5,"ddd"),1)</f>
+        <f t="shared" ref="V6" si="12">LEFT(TEXT(V5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="W6" s="11" t="str">
-        <f t="shared" ref="W6" si="14">LEFT(TEXT(W5,"ddd"),1)</f>
+        <f t="shared" ref="W6" si="13">LEFT(TEXT(W5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="X6" s="11" t="str">
-        <f t="shared" ref="X6:Z6" si="15">LEFT(TEXT(X5,"ddd"),1)</f>
+        <f t="shared" ref="X6:Z6" si="14">LEFT(TEXT(X5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="Y6" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="Z6" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>M</v>
       </c>
       <c r="AA6" s="11" t="str">
-        <f t="shared" ref="AA6" si="16">LEFT(TEXT(AA5,"ddd"),1)</f>
+        <f t="shared" ref="AA6" si="15">LEFT(TEXT(AA5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AB6" s="11" t="str">
-        <f t="shared" ref="AB6" si="17">LEFT(TEXT(AB5,"ddd"),1)</f>
+        <f t="shared" ref="AB6" si="16">LEFT(TEXT(AB5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="AC6" s="11" t="str">
-        <f t="shared" ref="AC6" si="18">LEFT(TEXT(AC5,"ddd"),1)</f>
+        <f t="shared" ref="AC6" si="17">LEFT(TEXT(AC5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AD6" s="11" t="str">
-        <f t="shared" ref="AD6" si="19">LEFT(TEXT(AD5,"ddd"),1)</f>
+        <f t="shared" ref="AD6" si="18">LEFT(TEXT(AD5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AE6" s="11" t="str">
-        <f t="shared" ref="AE6:AF6" si="20">LEFT(TEXT(AE5,"ddd"),1)</f>
+        <f t="shared" ref="AE6:AF6" si="19">LEFT(TEXT(AE5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="AF6" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="AG6" s="11" t="str">
@@ -1145,23 +1084,23 @@
         <v>M</v>
       </c>
       <c r="AH6" s="11" t="str">
-        <f t="shared" ref="AH6" si="21">LEFT(TEXT(AH5,"ddd"),1)</f>
+        <f t="shared" ref="AH6" si="20">LEFT(TEXT(AH5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AI6" s="11" t="str">
-        <f t="shared" ref="AI6" si="22">LEFT(TEXT(AI5,"ddd"),1)</f>
+        <f t="shared" ref="AI6" si="21">LEFT(TEXT(AI5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="AJ6" s="11" t="str">
-        <f t="shared" ref="AJ6" si="23">LEFT(TEXT(AJ5,"ddd"),1)</f>
+        <f t="shared" ref="AJ6" si="22">LEFT(TEXT(AJ5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AK6" s="11" t="str">
-        <f t="shared" ref="AK6" si="24">LEFT(TEXT(AK5,"ddd"),1)</f>
+        <f t="shared" ref="AK6" si="23">LEFT(TEXT(AK5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AL6" s="11" t="str">
-        <f t="shared" ref="AL6" si="25">LEFT(TEXT(AL5,"ddd"),1)</f>
+        <f t="shared" ref="AL6" si="24">LEFT(TEXT(AL5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="AM6" s="11" t="str">
@@ -1169,59 +1108,59 @@
         <v>S</v>
       </c>
       <c r="AN6" s="11" t="str">
-        <f t="shared" ref="AN6" si="26">LEFT(TEXT(AN5,"ddd"),1)</f>
+        <f t="shared" ref="AN6" si="25">LEFT(TEXT(AN5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="AO6" s="11" t="str">
-        <f t="shared" ref="AO6" si="27">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <f t="shared" ref="AO6" si="26">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AP6" s="11" t="str">
-        <f t="shared" ref="AP6" si="28">LEFT(TEXT(AP5,"ddd"),1)</f>
+        <f t="shared" ref="AP6" si="27">LEFT(TEXT(AP5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="AQ6" s="11" t="str">
-        <f t="shared" ref="AQ6" si="29">LEFT(TEXT(AQ5,"ddd"),1)</f>
+        <f t="shared" ref="AQ6" si="28">LEFT(TEXT(AQ5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AR6" s="11" t="str">
-        <f t="shared" ref="AR6" si="30">LEFT(TEXT(AR5,"ddd"),1)</f>
+        <f t="shared" ref="AR6" si="29">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AS6" s="11" t="str">
-        <f t="shared" ref="AS6" si="31">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6" si="30">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="AT6" s="11" t="str">
-        <f t="shared" ref="AT6" si="32">LEFT(TEXT(AT5,"ddd"),1)</f>
+        <f t="shared" ref="AT6" si="31">LEFT(TEXT(AT5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="AU6" s="11" t="str">
-        <f t="shared" ref="AU6" si="33">LEFT(TEXT(AU5,"ddd"),1)</f>
+        <f t="shared" ref="AU6" si="32">LEFT(TEXT(AU5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="AV6" s="11" t="str">
-        <f t="shared" ref="AV6" si="34">LEFT(TEXT(AV5,"ddd"),1)</f>
+        <f t="shared" ref="AV6" si="33">LEFT(TEXT(AV5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AW6" s="11" t="str">
-        <f t="shared" ref="AW6" si="35">LEFT(TEXT(AW5,"ddd"),1)</f>
+        <f t="shared" ref="AW6" si="34">LEFT(TEXT(AW5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="AX6" s="11" t="str">
-        <f t="shared" ref="AX6" si="36">LEFT(TEXT(AX5,"ddd"),1)</f>
+        <f t="shared" ref="AX6" si="35">LEFT(TEXT(AX5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AY6" s="11" t="str">
-        <f t="shared" ref="AY6" si="37">LEFT(TEXT(AY5,"ddd"),1)</f>
+        <f t="shared" ref="AY6" si="36">LEFT(TEXT(AY5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AZ6" s="11" t="str">
-        <f t="shared" ref="AZ6" si="38">LEFT(TEXT(AZ5,"ddd"),1)</f>
+        <f t="shared" ref="AZ6" si="37">LEFT(TEXT(AZ5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="BA6" s="11" t="str">
-        <f t="shared" ref="BA6" si="39">LEFT(TEXT(BA5,"ddd"),1)</f>
+        <f t="shared" ref="BA6" si="38">LEFT(TEXT(BA5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="BB6" s="11" t="str">
@@ -1229,23 +1168,23 @@
         <v>M</v>
       </c>
       <c r="BC6" s="11" t="str">
-        <f t="shared" ref="BC6" si="40">LEFT(TEXT(BC5,"ddd"),1)</f>
+        <f t="shared" ref="BC6" si="39">LEFT(TEXT(BC5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="BD6" s="11" t="str">
-        <f t="shared" ref="BD6" si="41">LEFT(TEXT(BD5,"ddd"),1)</f>
+        <f t="shared" ref="BD6" si="40">LEFT(TEXT(BD5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="BE6" s="11" t="str">
-        <f t="shared" ref="BE6" si="42">LEFT(TEXT(BE5,"ddd"),1)</f>
+        <f t="shared" ref="BE6" si="41">LEFT(TEXT(BE5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="BF6" s="11" t="str">
-        <f t="shared" ref="BF6" si="43">LEFT(TEXT(BF5,"ddd"),1)</f>
+        <f t="shared" ref="BF6" si="42">LEFT(TEXT(BF5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="BG6" s="11" t="str">
-        <f t="shared" ref="BG6" si="44">LEFT(TEXT(BG5,"ddd"),1)</f>
+        <f t="shared" ref="BG6" si="43">LEFT(TEXT(BG5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="BH6" s="11" t="str">
@@ -1253,119 +1192,63 @@
         <v>S</v>
       </c>
       <c r="BI6" s="11" t="str">
-        <f t="shared" ref="BI6" si="45">LEFT(TEXT(BI5,"ddd"),1)</f>
+        <f t="shared" ref="BI6" si="44">LEFT(TEXT(BI5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="BJ6" s="11" t="str">
-        <f t="shared" ref="BJ6" si="46">LEFT(TEXT(BJ5,"ddd"),1)</f>
+        <f t="shared" ref="BJ6" si="45">LEFT(TEXT(BJ5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="BK6" s="11" t="str">
-        <f t="shared" ref="BK6" si="47">LEFT(TEXT(BK5,"ddd"),1)</f>
+        <f t="shared" ref="BK6" si="46">LEFT(TEXT(BK5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="BL6" s="11" t="str">
-        <f t="shared" ref="BL6" si="48">LEFT(TEXT(BL5,"ddd"),1)</f>
+        <f t="shared" ref="BL6" si="47">LEFT(TEXT(BL5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="BM6" s="11" t="str">
-        <f t="shared" ref="BM6" si="49">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <f t="shared" ref="BM6" si="48">LEFT(TEXT(BM5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="BN6" s="11" t="str">
-        <f t="shared" ref="BN6" si="50">LEFT(TEXT(BN5,"ddd"),1)</f>
+        <f t="shared" ref="BN6" si="49">LEFT(TEXT(BN5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="BO6" s="11" t="str">
-        <f t="shared" ref="BO6" si="51">LEFT(TEXT(BO5,"ddd"),1)</f>
+        <f t="shared" ref="BO6" si="50">LEFT(TEXT(BO5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="BP6" s="11" t="str">
-        <f t="shared" ref="BP6" si="52">LEFT(TEXT(BP5,"ddd"),1)</f>
+        <f t="shared" ref="BP6" si="51">LEFT(TEXT(BP5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="BQ6" s="11" t="str">
-        <f t="shared" ref="BQ6" si="53">LEFT(TEXT(BQ5,"ddd"),1)</f>
+        <f t="shared" ref="BQ6" si="52">LEFT(TEXT(BQ5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="BR6" s="11" t="str">
-        <f t="shared" ref="BR6" si="54">LEFT(TEXT(BR5,"ddd"),1)</f>
+        <f t="shared" ref="BR6" si="53">LEFT(TEXT(BR5,"ddd"),1)</f>
         <v>W</v>
       </c>
       <c r="BS6" s="11" t="str">
-        <f t="shared" ref="BS6" si="55">LEFT(TEXT(BS5,"ddd"),1)</f>
+        <f t="shared" ref="BS6" si="54">LEFT(TEXT(BS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="BT6" s="11" t="str">
-        <f t="shared" ref="BT6" si="56">LEFT(TEXT(BT5,"ddd"),1)</f>
+        <f t="shared" ref="BT6" si="55">LEFT(TEXT(BT5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="BU6" s="11" t="str">
-        <f t="shared" ref="BU6" si="57">LEFT(TEXT(BU5,"ddd"),1)</f>
+        <f t="shared" ref="BU6" si="56">LEFT(TEXT(BU5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="BV6" s="11" t="str">
-        <f t="shared" ref="BV6" si="58">LEFT(TEXT(BV5,"ddd"),1)</f>
+        <f t="shared" ref="BV6" si="57">LEFT(TEXT(BV5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="BW6" s="11" t="str">
-        <f>LEFT(TEXT(BW5,"ddd"),1)</f>
-        <v>M</v>
-      </c>
-      <c r="BX6" s="11" t="str">
-        <f t="shared" ref="BX6" si="59">LEFT(TEXT(BX5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="BY6" s="11" t="str">
-        <f t="shared" ref="BY6" si="60">LEFT(TEXT(BY5,"ddd"),1)</f>
-        <v>W</v>
-      </c>
-      <c r="BZ6" s="11" t="str">
-        <f t="shared" ref="BZ6" si="61">LEFT(TEXT(BZ5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="CA6" s="11" t="str">
-        <f t="shared" ref="CA6" si="62">LEFT(TEXT(CA5,"ddd"),1)</f>
-        <v>F</v>
-      </c>
-      <c r="CB6" s="11" t="str">
-        <f t="shared" ref="CB6" si="63">LEFT(TEXT(CB5,"ddd"),1)</f>
-        <v>S</v>
-      </c>
-      <c r="CC6" s="11" t="str">
-        <f>LEFT(TEXT(CC5,"ddd"),1)</f>
-        <v>S</v>
-      </c>
-      <c r="CD6" s="11" t="str">
-        <f t="shared" ref="CD6" si="64">LEFT(TEXT(CD5,"ddd"),1)</f>
-        <v>M</v>
-      </c>
-      <c r="CE6" s="11" t="str">
-        <f t="shared" ref="CE6" si="65">LEFT(TEXT(CE5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="CF6" s="11" t="str">
-        <f t="shared" ref="CF6" si="66">LEFT(TEXT(CF5,"ddd"),1)</f>
-        <v>W</v>
-      </c>
-      <c r="CG6" s="11" t="str">
-        <f t="shared" ref="CG6" si="67">LEFT(TEXT(CG5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="CH6" s="11" t="str">
-        <f t="shared" ref="CH6" si="68">LEFT(TEXT(CH5,"ddd"),1)</f>
-        <v>F</v>
-      </c>
-      <c r="CI6" s="11" t="str">
-        <f t="shared" ref="CI6" si="69">LEFT(TEXT(CI5,"ddd"),1)</f>
-        <v>S</v>
-      </c>
-      <c r="CJ6" s="11" t="str">
-        <f t="shared" ref="CJ6" si="70">LEFT(TEXT(CJ5,"ddd"),1)</f>
-        <v>S</v>
-      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1442,22 +1325,8 @@
       <c r="BT7" s="6"/>
       <c r="BU7" s="6"/>
       <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="6"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
-      <c r="CH7" s="6"/>
-      <c r="CI7" s="6"/>
-      <c r="CJ7" s="6"/>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1538,22 +1407,8 @@
       <c r="BT8" s="6"/>
       <c r="BU8" s="6"/>
       <c r="BV8" s="6"/>
-      <c r="BW8" s="6"/>
-      <c r="BX8" s="6"/>
-      <c r="BY8" s="6"/>
-      <c r="BZ8" s="6"/>
-      <c r="CA8" s="6"/>
-      <c r="CB8" s="6"/>
-      <c r="CC8" s="6"/>
-      <c r="CD8" s="6"/>
-      <c r="CE8" s="6"/>
-      <c r="CF8" s="6"/>
-      <c r="CG8" s="6"/>
-      <c r="CH8" s="6"/>
-      <c r="CI8" s="6"/>
-      <c r="CJ8" s="6"/>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1634,22 +1489,8 @@
       <c r="BT9" s="6"/>
       <c r="BU9" s="6"/>
       <c r="BV9" s="6"/>
-      <c r="BW9" s="6"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="6"/>
-      <c r="CA9" s="6"/>
-      <c r="CB9" s="6"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="6"/>
-      <c r="CE9" s="6"/>
-      <c r="CF9" s="6"/>
-      <c r="CG9" s="6"/>
-      <c r="CH9" s="6"/>
-      <c r="CI9" s="6"/>
-      <c r="CJ9" s="6"/>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1730,22 +1571,8 @@
       <c r="BT10" s="6"/>
       <c r="BU10" s="6"/>
       <c r="BV10" s="6"/>
-      <c r="BW10" s="6"/>
-      <c r="BX10" s="6"/>
-      <c r="BY10" s="6"/>
-      <c r="BZ10" s="6"/>
-      <c r="CA10" s="6"/>
-      <c r="CB10" s="6"/>
-      <c r="CC10" s="6"/>
-      <c r="CD10" s="6"/>
-      <c r="CE10" s="6"/>
-      <c r="CF10" s="6"/>
-      <c r="CG10" s="6"/>
-      <c r="CH10" s="6"/>
-      <c r="CI10" s="6"/>
-      <c r="CJ10" s="6"/>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1826,22 +1653,8 @@
       <c r="BT11" s="6"/>
       <c r="BU11" s="6"/>
       <c r="BV11" s="6"/>
-      <c r="BW11" s="6"/>
-      <c r="BX11" s="6"/>
-      <c r="BY11" s="6"/>
-      <c r="BZ11" s="6"/>
-      <c r="CA11" s="6"/>
-      <c r="CB11" s="6"/>
-      <c r="CC11" s="6"/>
-      <c r="CD11" s="6"/>
-      <c r="CE11" s="6"/>
-      <c r="CF11" s="6"/>
-      <c r="CG11" s="6"/>
-      <c r="CH11" s="6"/>
-      <c r="CI11" s="6"/>
-      <c r="CJ11" s="6"/>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -1918,22 +1731,8 @@
       <c r="BT12" s="6"/>
       <c r="BU12" s="6"/>
       <c r="BV12" s="6"/>
-      <c r="BW12" s="6"/>
-      <c r="BX12" s="6"/>
-      <c r="BY12" s="6"/>
-      <c r="BZ12" s="6"/>
-      <c r="CA12" s="6"/>
-      <c r="CB12" s="6"/>
-      <c r="CC12" s="6"/>
-      <c r="CD12" s="6"/>
-      <c r="CE12" s="6"/>
-      <c r="CF12" s="6"/>
-      <c r="CG12" s="6"/>
-      <c r="CH12" s="6"/>
-      <c r="CI12" s="6"/>
-      <c r="CJ12" s="6"/>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -2014,22 +1813,8 @@
       <c r="BT13" s="6"/>
       <c r="BU13" s="6"/>
       <c r="BV13" s="6"/>
-      <c r="BW13" s="6"/>
-      <c r="BX13" s="6"/>
-      <c r="BY13" s="6"/>
-      <c r="BZ13" s="6"/>
-      <c r="CA13" s="6"/>
-      <c r="CB13" s="6"/>
-      <c r="CC13" s="6"/>
-      <c r="CD13" s="6"/>
-      <c r="CE13" s="6"/>
-      <c r="CF13" s="6"/>
-      <c r="CG13" s="6"/>
-      <c r="CH13" s="6"/>
-      <c r="CI13" s="6"/>
-      <c r="CJ13" s="6"/>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -2110,22 +1895,8 @@
       <c r="BT14" s="6"/>
       <c r="BU14" s="6"/>
       <c r="BV14" s="6"/>
-      <c r="BW14" s="6"/>
-      <c r="BX14" s="6"/>
-      <c r="BY14" s="6"/>
-      <c r="BZ14" s="6"/>
-      <c r="CA14" s="6"/>
-      <c r="CB14" s="6"/>
-      <c r="CC14" s="6"/>
-      <c r="CD14" s="6"/>
-      <c r="CE14" s="6"/>
-      <c r="CF14" s="6"/>
-      <c r="CG14" s="6"/>
-      <c r="CH14" s="6"/>
-      <c r="CI14" s="6"/>
-      <c r="CJ14" s="6"/>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -2206,22 +1977,8 @@
       <c r="BT15" s="6"/>
       <c r="BU15" s="6"/>
       <c r="BV15" s="6"/>
-      <c r="BW15" s="6"/>
-      <c r="BX15" s="6"/>
-      <c r="BY15" s="6"/>
-      <c r="BZ15" s="6"/>
-      <c r="CA15" s="6"/>
-      <c r="CB15" s="6"/>
-      <c r="CC15" s="6"/>
-      <c r="CD15" s="6"/>
-      <c r="CE15" s="6"/>
-      <c r="CF15" s="6"/>
-      <c r="CG15" s="6"/>
-      <c r="CH15" s="6"/>
-      <c r="CI15" s="6"/>
-      <c r="CJ15" s="6"/>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
@@ -2302,22 +2059,8 @@
       <c r="BT16" s="6"/>
       <c r="BU16" s="6"/>
       <c r="BV16" s="6"/>
-      <c r="BW16" s="6"/>
-      <c r="BX16" s="6"/>
-      <c r="BY16" s="6"/>
-      <c r="BZ16" s="6"/>
-      <c r="CA16" s="6"/>
-      <c r="CB16" s="6"/>
-      <c r="CC16" s="6"/>
-      <c r="CD16" s="6"/>
-      <c r="CE16" s="6"/>
-      <c r="CF16" s="6"/>
-      <c r="CG16" s="6"/>
-      <c r="CH16" s="6"/>
-      <c r="CI16" s="6"/>
-      <c r="CJ16" s="6"/>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2398,22 +2141,8 @@
       <c r="BT17" s="6"/>
       <c r="BU17" s="6"/>
       <c r="BV17" s="6"/>
-      <c r="BW17" s="6"/>
-      <c r="BX17" s="6"/>
-      <c r="BY17" s="6"/>
-      <c r="BZ17" s="6"/>
-      <c r="CA17" s="6"/>
-      <c r="CB17" s="6"/>
-      <c r="CC17" s="6"/>
-      <c r="CD17" s="6"/>
-      <c r="CE17" s="6"/>
-      <c r="CF17" s="6"/>
-      <c r="CG17" s="6"/>
-      <c r="CH17" s="6"/>
-      <c r="CI17" s="6"/>
-      <c r="CJ17" s="6"/>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -2494,22 +2223,8 @@
       <c r="BT18" s="6"/>
       <c r="BU18" s="6"/>
       <c r="BV18" s="6"/>
-      <c r="BW18" s="6"/>
-      <c r="BX18" s="6"/>
-      <c r="BY18" s="6"/>
-      <c r="BZ18" s="6"/>
-      <c r="CA18" s="6"/>
-      <c r="CB18" s="6"/>
-      <c r="CC18" s="6"/>
-      <c r="CD18" s="6"/>
-      <c r="CE18" s="6"/>
-      <c r="CF18" s="6"/>
-      <c r="CG18" s="6"/>
-      <c r="CH18" s="6"/>
-      <c r="CI18" s="6"/>
-      <c r="CJ18" s="6"/>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
@@ -2590,23 +2305,9 @@
       <c r="BT19" s="6"/>
       <c r="BU19" s="6"/>
       <c r="BV19" s="6"/>
-      <c r="BW19" s="6"/>
-      <c r="BX19" s="6"/>
-      <c r="BY19" s="6"/>
-      <c r="BZ19" s="6"/>
-      <c r="CA19" s="6"/>
-      <c r="CB19" s="6"/>
-      <c r="CC19" s="6"/>
-      <c r="CD19" s="6"/>
-      <c r="CE19" s="6"/>
-      <c r="CF19" s="6"/>
-      <c r="CG19" s="6"/>
-      <c r="CH19" s="6"/>
-      <c r="CI19" s="6"/>
-      <c r="CJ19" s="6"/>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.5">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.5">
+      <c r="A20" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6"/>
@@ -2682,27 +2383,17 @@
       <c r="BT20" s="6"/>
       <c r="BU20" s="6"/>
       <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="6"/>
-      <c r="CA20" s="6"/>
-      <c r="CB20" s="6"/>
-      <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
-      <c r="CF20" s="6"/>
-      <c r="CG20" s="6"/>
-      <c r="CH20" s="6"/>
-      <c r="CI20" s="6"/>
-      <c r="CJ20" s="6"/>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5">
+        <v>44279</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44316</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2774,27 +2465,17 @@
       <c r="BT21" s="6"/>
       <c r="BU21" s="6"/>
       <c r="BV21" s="6"/>
-      <c r="BW21" s="6"/>
-      <c r="BX21" s="6"/>
-      <c r="BY21" s="6"/>
-      <c r="BZ21" s="6"/>
-      <c r="CA21" s="6"/>
-      <c r="CB21" s="6"/>
-      <c r="CC21" s="6"/>
-      <c r="CD21" s="6"/>
-      <c r="CE21" s="6"/>
-      <c r="CF21" s="6"/>
-      <c r="CG21" s="6"/>
-      <c r="CH21" s="6"/>
-      <c r="CI21" s="6"/>
-      <c r="CJ21" s="6"/>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5">
+        <v>44298</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44316</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2866,27 +2547,17 @@
       <c r="BT22" s="6"/>
       <c r="BU22" s="6"/>
       <c r="BV22" s="6"/>
-      <c r="BW22" s="6"/>
-      <c r="BX22" s="6"/>
-      <c r="BY22" s="6"/>
-      <c r="BZ22" s="6"/>
-      <c r="CA22" s="6"/>
-      <c r="CB22" s="6"/>
-      <c r="CC22" s="6"/>
-      <c r="CD22" s="6"/>
-      <c r="CE22" s="6"/>
-      <c r="CF22" s="6"/>
-      <c r="CG22" s="6"/>
-      <c r="CH22" s="6"/>
-      <c r="CI22" s="6"/>
-      <c r="CJ22" s="6"/>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5">
+        <v>44253</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44316</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2958,27 +2629,17 @@
       <c r="BT23" s="6"/>
       <c r="BU23" s="6"/>
       <c r="BV23" s="6"/>
-      <c r="BW23" s="6"/>
-      <c r="BX23" s="6"/>
-      <c r="BY23" s="6"/>
-      <c r="BZ23" s="6"/>
-      <c r="CA23" s="6"/>
-      <c r="CB23" s="6"/>
-      <c r="CC23" s="6"/>
-      <c r="CD23" s="6"/>
-      <c r="CE23" s="6"/>
-      <c r="CF23" s="6"/>
-      <c r="CG23" s="6"/>
-      <c r="CH23" s="6"/>
-      <c r="CI23" s="6"/>
-      <c r="CJ23" s="6"/>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5">
+        <v>44252</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44316</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -3050,27 +2711,17 @@
       <c r="BT24" s="6"/>
       <c r="BU24" s="6"/>
       <c r="BV24" s="6"/>
-      <c r="BW24" s="6"/>
-      <c r="BX24" s="6"/>
-      <c r="BY24" s="6"/>
-      <c r="BZ24" s="6"/>
-      <c r="CA24" s="6"/>
-      <c r="CB24" s="6"/>
-      <c r="CC24" s="6"/>
-      <c r="CD24" s="6"/>
-      <c r="CE24" s="6"/>
-      <c r="CF24" s="6"/>
-      <c r="CG24" s="6"/>
-      <c r="CH24" s="6"/>
-      <c r="CI24" s="6"/>
-      <c r="CJ24" s="6"/>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5">
+        <v>44293</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44316</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3142,27 +2793,17 @@
       <c r="BT25" s="6"/>
       <c r="BU25" s="6"/>
       <c r="BV25" s="6"/>
-      <c r="BW25" s="6"/>
-      <c r="BX25" s="6"/>
-      <c r="BY25" s="6"/>
-      <c r="BZ25" s="6"/>
-      <c r="CA25" s="6"/>
-      <c r="CB25" s="6"/>
-      <c r="CC25" s="6"/>
-      <c r="CD25" s="6"/>
-      <c r="CE25" s="6"/>
-      <c r="CF25" s="6"/>
-      <c r="CG25" s="6"/>
-      <c r="CH25" s="6"/>
-      <c r="CI25" s="6"/>
-      <c r="CJ25" s="6"/>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44316</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -3234,22 +2875,8 @@
       <c r="BT26" s="6"/>
       <c r="BU26" s="6"/>
       <c r="BV26" s="6"/>
-      <c r="BW26" s="6"/>
-      <c r="BX26" s="6"/>
-      <c r="BY26" s="6"/>
-      <c r="BZ26" s="6"/>
-      <c r="CA26" s="6"/>
-      <c r="CB26" s="6"/>
-      <c r="CC26" s="6"/>
-      <c r="CD26" s="6"/>
-      <c r="CE26" s="6"/>
-      <c r="CF26" s="6"/>
-      <c r="CG26" s="6"/>
-      <c r="CH26" s="6"/>
-      <c r="CI26" s="6"/>
-      <c r="CJ26" s="6"/>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3323,24 +2950,9 @@
       <c r="BT27" s="2"/>
       <c r="BU27" s="2"/>
       <c r="BV27" s="2"/>
-      <c r="BW27" s="2"/>
-      <c r="BX27" s="2"/>
-      <c r="BY27" s="2"/>
-      <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
-      <c r="CC27" s="2"/>
-      <c r="CD27" s="2"/>
-      <c r="CE27" s="2"/>
-      <c r="CF27" s="2"/>
-      <c r="CG27" s="2"/>
-      <c r="CH27" s="2"/>
-      <c r="CI27" s="2"/>
-      <c r="CJ27" s="2"/>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3413,24 +3025,9 @@
       <c r="BT28" s="2"/>
       <c r="BU28" s="2"/>
       <c r="BV28" s="2"/>
-      <c r="BW28" s="2"/>
-      <c r="BX28" s="2"/>
-      <c r="BY28" s="2"/>
-      <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
-      <c r="CC28" s="2"/>
-      <c r="CD28" s="2"/>
-      <c r="CE28" s="2"/>
-      <c r="CF28" s="2"/>
-      <c r="CG28" s="2"/>
-      <c r="CH28" s="2"/>
-      <c r="CI28" s="2"/>
-      <c r="CJ28" s="2"/>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3503,37 +3100,21 @@
       <c r="BT29" s="2"/>
       <c r="BU29" s="2"/>
       <c r="BV29" s="2"/>
-      <c r="BW29" s="2"/>
-      <c r="BX29" s="2"/>
-      <c r="BY29" s="2"/>
-      <c r="BZ29" s="2"/>
-      <c r="CA29" s="2"/>
-      <c r="CB29" s="2"/>
-      <c r="CC29" s="2"/>
-      <c r="CD29" s="2"/>
-      <c r="CE29" s="2"/>
-      <c r="CF29" s="2"/>
-      <c r="CG29" s="2"/>
-      <c r="CH29" s="2"/>
-      <c r="CI29" s="2"/>
-      <c r="CJ29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="BW4:CC4"/>
-    <mergeCell ref="CD4:CJ4"/>
+  <mergeCells count="10">
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AG4:AM4"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="BB4:BH4"/>
     <mergeCell ref="BI4:BO4"/>
     <mergeCell ref="BP4:BV4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AG4:AM4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:CJ26">
+  <conditionalFormatting sqref="E7:BV26">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(E$5&gt;=$B7,E$5&lt;=$C7)</formula>
     </cfRule>

--- a/GanttChartPROG25.xlsx
+++ b/GanttChartPROG25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlandgraff\source\repos\prog1004-gruppe-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7BE1C-509D-4BE7-983F-86F3F5860C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD69EB4-050E-42AD-A658-DF32EC0FDB28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{869F4D6E-3DCD-43F9-A693-0C5EA342B78F}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
